--- a/biology/Zoologie/Jridi/Jridi.xlsx
+++ b/biology/Zoologie/Jridi/Jridi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thraya
 Le Jridi ou Thraya est une race de pigeon domestique originaire de Tunisie. C'est un pigeon tambour non reconnu par la Commission européenne des standards pigeons (CESP).
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jridi, également appelé Thraya, est une race de pigeon ancienne. Son origine exacte est inconnue. On la trouve essentiellement dans l'oasis de Tozeur[1],[2].
-C'est un pigeon tambour de taille moyenne et aux pattes emplumées. La tête est lisse mais certains individus présentent une visière, c'est-à-dire de petites plumes couvrant le haut du bec. La race est prolifique mais reste rare[3],[1].
-La race n'est pas reconnue par la CESP[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jridi, également appelé Thraya, est une race de pigeon ancienne. Son origine exacte est inconnue. On la trouve essentiellement dans l'oasis de Tozeur,.
+C'est un pigeon tambour de taille moyenne et aux pattes emplumées. La tête est lisse mais certains individus présentent une visière, c'est-à-dire de petites plumes couvrant le haut du bec. La race est prolifique mais reste rare,.
+La race n'est pas reconnue par la CESP.
 </t>
         </is>
       </c>
